--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efnb1-Ephb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efnb1-Ephb1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.712432666666666</v>
+        <v>9.031965666666666</v>
       </c>
       <c r="H2">
-        <v>29.137298</v>
+        <v>27.095897</v>
       </c>
       <c r="I2">
-        <v>0.4639063029983291</v>
+        <v>0.4424406034784756</v>
       </c>
       <c r="J2">
-        <v>0.463906302998329</v>
+        <v>0.4424406034784755</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.814284333333333</v>
+        <v>4.066173333333333</v>
       </c>
       <c r="N2">
-        <v>8.442852999999999</v>
+        <v>12.19852</v>
       </c>
       <c r="O2">
-        <v>0.7633363087964763</v>
+        <v>0.8070107842953054</v>
       </c>
       <c r="P2">
-        <v>0.7633363087964762</v>
+        <v>0.8070107842953055</v>
       </c>
       <c r="Q2">
-        <v>27.33354709235489</v>
+        <v>36.72553794138221</v>
       </c>
       <c r="R2">
-        <v>246.001923831194</v>
+        <v>330.5298414724399</v>
       </c>
       <c r="S2">
-        <v>0.3541165249581643</v>
+        <v>0.3570543384172528</v>
       </c>
       <c r="T2">
-        <v>0.3541165249581641</v>
+        <v>0.3570543384172528</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.712432666666666</v>
+        <v>9.031965666666666</v>
       </c>
       <c r="H3">
-        <v>29.137298</v>
+        <v>27.095897</v>
       </c>
       <c r="I3">
-        <v>0.4639063029983291</v>
+        <v>0.4424406034784756</v>
       </c>
       <c r="J3">
-        <v>0.463906302998329</v>
+        <v>0.4424406034784755</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>0.5442279999999999</v>
       </c>
       <c r="O3">
-        <v>0.04920481176963387</v>
+        <v>0.03600419273120554</v>
       </c>
       <c r="P3">
-        <v>0.04920481176963386</v>
+        <v>0.03600419273120554</v>
       </c>
       <c r="Q3">
-        <v>1.761925935104889</v>
+        <v>1.638482870279555</v>
       </c>
       <c r="R3">
-        <v>15.857333415944</v>
+        <v>14.746345832516</v>
       </c>
       <c r="S3">
-        <v>0.02282642231777952</v>
+        <v>0.01592971675974993</v>
       </c>
       <c r="T3">
-        <v>0.02282642231777951</v>
+        <v>0.01592971675974992</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.712432666666666</v>
+        <v>9.031965666666666</v>
       </c>
       <c r="H4">
-        <v>29.137298</v>
+        <v>27.095897</v>
       </c>
       <c r="I4">
-        <v>0.4639063029983291</v>
+        <v>0.4424406034784756</v>
       </c>
       <c r="J4">
-        <v>0.463906302998329</v>
+        <v>0.4424406034784755</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6911273333333333</v>
+        <v>0.7909786666666667</v>
       </c>
       <c r="N4">
-        <v>2.073382</v>
+        <v>2.372936</v>
       </c>
       <c r="O4">
-        <v>0.1874588794338899</v>
+        <v>0.156985022973489</v>
       </c>
       <c r="P4">
-        <v>0.1874588794338899</v>
+        <v>0.156985022973489</v>
       </c>
       <c r="Q4">
-        <v>6.712527689092888</v>
+        <v>7.144092160399111</v>
       </c>
       <c r="R4">
-        <v>60.412749201836</v>
+        <v>64.296829443592</v>
       </c>
       <c r="S4">
-        <v>0.08696335572238538</v>
+        <v>0.06945654830147283</v>
       </c>
       <c r="T4">
-        <v>0.08696335572238535</v>
+        <v>0.06945654830147283</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>27.37471499999999</v>
       </c>
       <c r="I5">
-        <v>0.4358435305594535</v>
+        <v>0.4469933372071527</v>
       </c>
       <c r="J5">
-        <v>0.4358435305594534</v>
+        <v>0.4469933372071526</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.814284333333333</v>
+        <v>4.066173333333333</v>
       </c>
       <c r="N5">
-        <v>8.442852999999999</v>
+        <v>12.19852</v>
       </c>
       <c r="O5">
-        <v>0.7633363087964763</v>
+        <v>0.8070107842953054</v>
       </c>
       <c r="P5">
-        <v>0.7633363087964762</v>
+        <v>0.8070107842953055</v>
       </c>
       <c r="Q5">
-        <v>25.68007718465499</v>
+        <v>37.10344538019999</v>
       </c>
       <c r="R5">
-        <v>231.1206946618949</v>
+        <v>333.9310084217999</v>
       </c>
       <c r="S5">
-        <v>0.3326951918300774</v>
+        <v>0.3607284436343202</v>
       </c>
       <c r="T5">
-        <v>0.3326951918300773</v>
+        <v>0.3607284436343202</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>27.37471499999999</v>
       </c>
       <c r="I6">
-        <v>0.4358435305594535</v>
+        <v>0.4469933372071527</v>
       </c>
       <c r="J6">
-        <v>0.4358435305594534</v>
+        <v>0.4469933372071526</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -812,10 +812,10 @@
         <v>0.5442279999999999</v>
       </c>
       <c r="O6">
-        <v>0.04920481176963387</v>
+        <v>0.03600419273120554</v>
       </c>
       <c r="P6">
-        <v>0.04920481176963386</v>
+        <v>0.03600419273120554</v>
       </c>
       <c r="Q6">
         <v>1.65534293278</v>
@@ -824,10 +824,10 @@
         <v>14.89808639501999</v>
       </c>
       <c r="S6">
-        <v>0.02144559888219058</v>
+        <v>0.01609363426237108</v>
       </c>
       <c r="T6">
-        <v>0.02144559888219057</v>
+        <v>0.01609363426237107</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>27.37471499999999</v>
       </c>
       <c r="I7">
-        <v>0.4358435305594535</v>
+        <v>0.4469933372071527</v>
       </c>
       <c r="J7">
-        <v>0.4358435305594534</v>
+        <v>0.4469933372071526</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6911273333333333</v>
+        <v>0.7909786666666667</v>
       </c>
       <c r="N7">
-        <v>2.073382</v>
+        <v>2.372936</v>
       </c>
       <c r="O7">
-        <v>0.1874588794338899</v>
+        <v>0.156985022973489</v>
       </c>
       <c r="P7">
-        <v>0.1874588794338899</v>
+        <v>0.156985022973489</v>
       </c>
       <c r="Q7">
-        <v>6.306471259569999</v>
+        <v>7.217605190359999</v>
       </c>
       <c r="R7">
-        <v>56.75824133612999</v>
+        <v>64.95844671323999</v>
       </c>
       <c r="S7">
-        <v>0.08170273984718548</v>
+        <v>0.07017125931046138</v>
       </c>
       <c r="T7">
-        <v>0.08170273984718548</v>
+        <v>0.07017125931046138</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,22 +906,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.318184</v>
+        <v>0.2635683333333333</v>
       </c>
       <c r="H8">
-        <v>0.9545520000000001</v>
+        <v>0.790705</v>
       </c>
       <c r="I8">
-        <v>0.01519779525677573</v>
+        <v>0.01291117977653399</v>
       </c>
       <c r="J8">
-        <v>0.01519779525677573</v>
+        <v>0.01291117977653399</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.814284333333333</v>
+        <v>4.066173333333333</v>
       </c>
       <c r="N8">
-        <v>8.442852999999999</v>
+        <v>12.19852</v>
       </c>
       <c r="O8">
-        <v>0.7633363087964763</v>
+        <v>0.8070107842953054</v>
       </c>
       <c r="P8">
-        <v>0.7633363087964762</v>
+        <v>0.8070107842953055</v>
       </c>
       <c r="Q8">
-        <v>0.8954602463173333</v>
+        <v>1.071714528511111</v>
       </c>
       <c r="R8">
-        <v>8.059142216855999</v>
+        <v>9.645430756599998</v>
       </c>
       <c r="S8">
-        <v>0.01160102893315178</v>
+        <v>0.01041946131763838</v>
       </c>
       <c r="T8">
-        <v>0.01160102893315178</v>
+        <v>0.01041946131763838</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,22 +968,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.318184</v>
+        <v>0.2635683333333333</v>
       </c>
       <c r="H9">
-        <v>0.9545520000000001</v>
+        <v>0.790705</v>
       </c>
       <c r="I9">
-        <v>0.01519779525677573</v>
+        <v>0.01291117977653399</v>
       </c>
       <c r="J9">
-        <v>0.01519779525677573</v>
+        <v>0.01291117977653399</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -998,22 +998,22 @@
         <v>0.5442279999999999</v>
       </c>
       <c r="O9">
-        <v>0.04920481176963387</v>
+        <v>0.03600419273120554</v>
       </c>
       <c r="P9">
-        <v>0.04920481176963386</v>
+        <v>0.03600419273120554</v>
       </c>
       <c r="Q9">
-        <v>0.05772154731733333</v>
+        <v>0.04781375563777777</v>
       </c>
       <c r="R9">
-        <v>0.519493925856</v>
+        <v>0.4303238007399999</v>
       </c>
       <c r="S9">
-        <v>0.0007478046549230844</v>
+        <v>0.0004648566050615733</v>
       </c>
       <c r="T9">
-        <v>0.0007478046549230843</v>
+        <v>0.0004648566050615731</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.318184</v>
+        <v>0.2635683333333333</v>
       </c>
       <c r="H10">
-        <v>0.9545520000000001</v>
+        <v>0.790705</v>
       </c>
       <c r="I10">
-        <v>0.01519779525677573</v>
+        <v>0.01291117977653399</v>
       </c>
       <c r="J10">
-        <v>0.01519779525677573</v>
+        <v>0.01291117977653399</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6911273333333333</v>
+        <v>0.7909786666666667</v>
       </c>
       <c r="N10">
-        <v>2.073382</v>
+        <v>2.372936</v>
       </c>
       <c r="O10">
-        <v>0.1874588794338899</v>
+        <v>0.156985022973489</v>
       </c>
       <c r="P10">
-        <v>0.1874588794338899</v>
+        <v>0.156985022973489</v>
       </c>
       <c r="Q10">
-        <v>0.2199056594293333</v>
+        <v>0.2084769288755556</v>
       </c>
       <c r="R10">
-        <v>1.979150934864</v>
+        <v>1.87629235988</v>
       </c>
       <c r="S10">
-        <v>0.002848961668700866</v>
+        <v>0.002026861853834036</v>
       </c>
       <c r="T10">
-        <v>0.002848961668700866</v>
+        <v>0.002026861853834035</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.427651</v>
+        <v>1.809602666666667</v>
       </c>
       <c r="H11">
-        <v>4.282953</v>
+        <v>5.428808</v>
       </c>
       <c r="I11">
-        <v>0.06819056770966213</v>
+        <v>0.08864534315615299</v>
       </c>
       <c r="J11">
-        <v>0.06819056770966211</v>
+        <v>0.08864534315615297</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.814284333333333</v>
+        <v>4.066173333333333</v>
       </c>
       <c r="N11">
-        <v>8.442852999999999</v>
+        <v>12.19852</v>
       </c>
       <c r="O11">
-        <v>0.7633363087964763</v>
+        <v>0.8070107842953054</v>
       </c>
       <c r="P11">
-        <v>0.7633363087964762</v>
+        <v>0.8070107842953055</v>
       </c>
       <c r="Q11">
-        <v>4.017815842767666</v>
+        <v>7.358158107128888</v>
       </c>
       <c r="R11">
-        <v>36.160342584909</v>
+        <v>66.22342296415999</v>
       </c>
       <c r="S11">
-        <v>0.05205233625022967</v>
+        <v>0.07153774790457351</v>
       </c>
       <c r="T11">
-        <v>0.05205233625022965</v>
+        <v>0.0715377479045735</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.427651</v>
+        <v>1.809602666666667</v>
       </c>
       <c r="H12">
-        <v>4.282953</v>
+        <v>5.428808</v>
       </c>
       <c r="I12">
-        <v>0.06819056770966213</v>
+        <v>0.08864534315615299</v>
       </c>
       <c r="J12">
-        <v>0.06819056770966211</v>
+        <v>0.08864534315615297</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1184,22 +1184,22 @@
         <v>0.5442279999999999</v>
       </c>
       <c r="O12">
-        <v>0.04920481176963387</v>
+        <v>0.03600419273120554</v>
       </c>
       <c r="P12">
-        <v>0.04920481176963386</v>
+        <v>0.03600419273120554</v>
       </c>
       <c r="Q12">
-        <v>0.2589892161426666</v>
+        <v>0.3282788133582222</v>
       </c>
       <c r="R12">
-        <v>2.330902945284</v>
+        <v>2.954509320224</v>
       </c>
       <c r="S12">
-        <v>0.003355304048618399</v>
+        <v>0.003191604019717985</v>
       </c>
       <c r="T12">
-        <v>0.003355304048618397</v>
+        <v>0.003191604019717984</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.427651</v>
+        <v>1.809602666666667</v>
       </c>
       <c r="H13">
-        <v>4.282953</v>
+        <v>5.428808</v>
       </c>
       <c r="I13">
-        <v>0.06819056770966213</v>
+        <v>0.08864534315615299</v>
       </c>
       <c r="J13">
-        <v>0.06819056770966211</v>
+        <v>0.08864534315615297</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.6911273333333333</v>
+        <v>0.7909786666666667</v>
       </c>
       <c r="N13">
-        <v>2.073382</v>
+        <v>2.372936</v>
       </c>
       <c r="O13">
-        <v>0.1874588794338899</v>
+        <v>0.156985022973489</v>
       </c>
       <c r="P13">
-        <v>0.1874588794338899</v>
+        <v>0.156985022973489</v>
       </c>
       <c r="Q13">
-        <v>0.9866886285606666</v>
+        <v>1.431357104476445</v>
       </c>
       <c r="R13">
-        <v>8.880197657046001</v>
+        <v>12.882213940288</v>
       </c>
       <c r="S13">
-        <v>0.01278292741081406</v>
+        <v>0.01391599123186149</v>
       </c>
       <c r="T13">
-        <v>0.01278292741081406</v>
+        <v>0.01391599123186149</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.353022</v>
+        <v>0.1839203333333334</v>
       </c>
       <c r="H14">
-        <v>1.059066</v>
+        <v>0.5517610000000001</v>
       </c>
       <c r="I14">
-        <v>0.01686180347577968</v>
+        <v>0.009009536381684918</v>
       </c>
       <c r="J14">
-        <v>0.01686180347577968</v>
+        <v>0.009009536381684917</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.814284333333333</v>
+        <v>4.066173333333333</v>
       </c>
       <c r="N14">
-        <v>8.442852999999999</v>
+        <v>12.19852</v>
       </c>
       <c r="O14">
-        <v>0.7633363087964763</v>
+        <v>0.8070107842953054</v>
       </c>
       <c r="P14">
-        <v>0.7633363087964762</v>
+        <v>0.8070107842953055</v>
       </c>
       <c r="Q14">
-        <v>0.993504283922</v>
+        <v>0.7478519548577777</v>
       </c>
       <c r="R14">
-        <v>8.941538555297999</v>
+        <v>6.73066759372</v>
       </c>
       <c r="S14">
-        <v>0.01287122682485326</v>
+        <v>0.007270793021520634</v>
       </c>
       <c r="T14">
-        <v>0.01287122682485325</v>
+        <v>0.007270793021520634</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.353022</v>
+        <v>0.1839203333333334</v>
       </c>
       <c r="H15">
-        <v>1.059066</v>
+        <v>0.5517610000000001</v>
       </c>
       <c r="I15">
-        <v>0.01686180347577968</v>
+        <v>0.009009536381684918</v>
       </c>
       <c r="J15">
-        <v>0.01686180347577968</v>
+        <v>0.009009536381684917</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1370,22 +1370,22 @@
         <v>0.5442279999999999</v>
       </c>
       <c r="O15">
-        <v>0.04920481176963387</v>
+        <v>0.03600419273120554</v>
       </c>
       <c r="P15">
-        <v>0.04920481176963386</v>
+        <v>0.03600419273120554</v>
       </c>
       <c r="Q15">
-        <v>0.06404148567199999</v>
+        <v>0.03336486505644445</v>
       </c>
       <c r="R15">
-        <v>0.576373371048</v>
+        <v>0.300283785508</v>
       </c>
       <c r="S15">
-        <v>0.0008296818661222976</v>
+        <v>0.000324381084304992</v>
       </c>
       <c r="T15">
-        <v>0.0008296818661222972</v>
+        <v>0.000324381084304992</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.353022</v>
+        <v>0.1839203333333334</v>
       </c>
       <c r="H16">
-        <v>1.059066</v>
+        <v>0.5517610000000001</v>
       </c>
       <c r="I16">
-        <v>0.01686180347577968</v>
+        <v>0.009009536381684918</v>
       </c>
       <c r="J16">
-        <v>0.01686180347577968</v>
+        <v>0.009009536381684917</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6911273333333333</v>
+        <v>0.7909786666666667</v>
       </c>
       <c r="N16">
-        <v>2.073382</v>
+        <v>2.372936</v>
       </c>
       <c r="O16">
-        <v>0.1874588794338899</v>
+        <v>0.156985022973489</v>
       </c>
       <c r="P16">
-        <v>0.1874588794338899</v>
+        <v>0.156985022973489</v>
       </c>
       <c r="Q16">
-        <v>0.243983153468</v>
+        <v>0.1454770600328889</v>
       </c>
       <c r="R16">
-        <v>2.195848381212</v>
+        <v>1.309293540296</v>
       </c>
       <c r="S16">
-        <v>0.003160894784804129</v>
+        <v>0.001414362275859292</v>
       </c>
       <c r="T16">
-        <v>0.003160894784804129</v>
+        <v>0.001414362275859292</v>
       </c>
     </row>
   </sheetData>
